--- a/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2265351.362179556</v>
+        <v>2261190.585011891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9881884.789902521</v>
+        <v>9881884.789902523</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>325.9867102795471</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>253.5111876485552</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86.68674332176606</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>5.791117132838792</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>298.5978988831012</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>184.388988834616</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>55.84003136202634</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.2889731870045</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>173.3244323150257</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>201.3302879382944</v>
+        <v>169.0167291702122</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.61671467938193</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.259425062653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>162.6619384845067</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>90.39345905303202</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>52.02930655048458</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0.2402935433864331</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>22.59265124632597</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>82.95729688511082</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>99.20555210933476</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.612772922120321</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991771</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.1750215854271</v>
+        <v>78.23263067809606</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.4746605491556</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>48.00679786410397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>129.7991394858825</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>67.41386939711251</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620203</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.981069572904</v>
+        <v>1581.134716985073</v>
       </c>
       <c r="C2" t="n">
-        <v>1883.018552632492</v>
+        <v>1212.172200044661</v>
       </c>
       <c r="D2" t="n">
-        <v>1524.752854025742</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.964601427497</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>727.9786966378899</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>310.0148885360768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.758776122685</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.796259182274</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.530560575523</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>888.7423079772789</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>477.7564031876713</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>59.79259508585818</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>59.79259508585818</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>671.7249121235795</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1726.574418528649</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1357.611901588237</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>999.3462029814866</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2522.073906861631</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2522.073906861631</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2522.073906861631</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2522.073906861631</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2522.073906861631</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="X8" t="n">
-        <v>2522.073906861631</v>
+        <v>2113.17425859277</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>2113.17425859277</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="T10" t="n">
-        <v>524.7650569960363</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
         <v>653.6966825353827</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1063.33469826364</v>
       </c>
       <c r="W13" t="n">
-        <v>1666.926296067743</v>
+        <v>1063.33469826364</v>
       </c>
       <c r="X13" t="n">
-        <v>1438.936745169726</v>
+        <v>835.3451473656224</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>835.3451473656224</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4391.840681985868</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1191.338538189213</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>1191.338538189213</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>970.5459590456827</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1043.032939826104</v>
+        <v>707.274683721365</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>707.274683721365</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
         <v>506.8067350374723</v>
@@ -5712,13 +5712,13 @@
         <v>1445.473983799873</v>
       </c>
       <c r="W19" t="n">
-        <v>1445.473983799873</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X19" t="n">
-        <v>1445.473983799873</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y19" t="n">
-        <v>1224.681404656343</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464783</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5855,10 +5855,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>3774.668018147752</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>3605.731835219845</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>3455.61519580751</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>3307.702102225117</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727206</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727206</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945064</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.26929076341</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>4177.109062121523</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>3956.316482977992</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3773.434671845128</v>
+        <v>533.5270475124396</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.434671845128</v>
+        <v>533.5270475124396</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432792</v>
+        <v>383.4104081001038</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850399</v>
+        <v>383.4104081001038</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>383.4104081001038</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>215.7075714748228</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989246</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>4556.285106989246</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>4472.489857610346</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>4183.072687573385</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X25" t="n">
-        <v>3955.083136675368</v>
+        <v>935.9680914862095</v>
       </c>
       <c r="Y25" t="n">
-        <v>3955.083136675368</v>
+        <v>715.1755123426793</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276588</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4326.137700633766</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>4297.26297137219</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>4042.578483166303</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>4042.578483166303</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>3942.370854773036</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,46 +6448,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>416.1091927888619</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1952.694200526804</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1761.00831635363</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1539.241700923156</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1250.1388340488</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>1250.1388340488</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>960.7216640118392</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>732.7321131138218</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>511.9395339702917</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811482</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542189</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>491.7343098287689</v>
+        <v>885.7654343213993</v>
       </c>
       <c r="C34" t="n">
-        <v>491.7343098287689</v>
+        <v>716.8292513934924</v>
       </c>
       <c r="D34" t="n">
-        <v>341.6176704164332</v>
+        <v>566.7126119811567</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6176704164332</v>
+        <v>418.7995183987636</v>
       </c>
       <c r="F34" t="n">
-        <v>194.7277229185228</v>
+        <v>271.9095709008532</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799874</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593987</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>901.372325557026</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590086</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.3827746590086</v>
+        <v>1067.413899151639</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7037,31 +7037,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>211.1920047000667</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C37" t="n">
-        <v>211.1920047000667</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D37" t="n">
-        <v>211.1920047000667</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E37" t="n">
-        <v>211.1920047000667</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F37" t="n">
-        <v>211.1920047000667</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7125,22 +7125,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>613.6330486738366</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.8404695303064</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7186,13 +7186,13 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686433</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>3576.687616095327</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>3576.687616095327</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>3426.570976682992</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>3426.570976682992</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>3279.681029185082</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>3111.9781925598</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>2965.761005777658</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>4207.118210967114</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>3979.128660069097</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>3758.336080925567</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7417,22 +7417,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.2948715744233</v>
+        <v>470.2141403171231</v>
       </c>
       <c r="C43" t="n">
-        <v>331.3586886465164</v>
+        <v>470.2141403171231</v>
       </c>
       <c r="D43" t="n">
-        <v>331.3586886465164</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E43" t="n">
-        <v>331.3586886465164</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F43" t="n">
-        <v>331.3586886465164</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6558520212353</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V43" t="n">
-        <v>1420.142636483171</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W43" t="n">
-        <v>1130.72546644621</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X43" t="n">
-        <v>902.7359155481931</v>
+        <v>872.655184290893</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.943336404663</v>
+        <v>651.8626051473628</v>
       </c>
     </row>
     <row r="44">
@@ -7624,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7712,37 +7712,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193638</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320284</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454343</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008797</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7806,52 +7806,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258581</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384224</v>
       </c>
       <c r="V46" t="n">
-        <v>1943.184686185112</v>
+        <v>909.2731541783372</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.767516148151</v>
+        <v>619.8559841413767</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050825</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>79.70465870845291</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260154</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>358.2849913921049</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,19 +9646,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>132.9990175570116</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>107.5040408147564</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587534</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476832</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>161.0524397463283</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476816</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>386.0843734984074</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476912</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>152.5209286444461</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.32522828944178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>123.8610598520843</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>76.85336204559582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>96.58616646772776</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.4693618456507</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.1623636679948</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.1803464387172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>126.5041032797024</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>85.31937974792703</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356952</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.85078667360112</v>
+        <v>87.79317758093217</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.55114770987264</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>48.34562254573412</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>18.81633353232982</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>77.34114551720828</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.0742887270168</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636297</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516046</v>
-      </c>
       <c r="E2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="G2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="H2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="I2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="K2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="G2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="H2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.590986126</v>
-      </c>
       <c r="L2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="M2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861255</v>
       </c>
       <c r="N2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="O2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389445</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="C4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="D4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="E4" t="n">
-        <v>23732.20458603891</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="F4" t="n">
-        <v>23732.20458603886</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="G4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="H4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="I4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="J4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="K4" t="n">
-        <v>23732.20458603884</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="L4" t="n">
-        <v>23732.20458603887</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="M4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="N4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="O4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677957</v>
       </c>
       <c r="P4" t="n">
-        <v>23732.20458603888</v>
+        <v>24062.11227677967</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26487,19 +26487,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275169.3871527223</v>
+        <v>-276011.27568389</v>
       </c>
       <c r="C6" t="n">
-        <v>314798.492061822</v>
+        <v>313956.6035306545</v>
       </c>
       <c r="D6" t="n">
-        <v>314798.4920618217</v>
+        <v>313956.6035306546</v>
       </c>
       <c r="E6" t="n">
-        <v>-271724.5458470334</v>
+        <v>-272054.4535377744</v>
       </c>
       <c r="F6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556327</v>
       </c>
       <c r="G6" t="n">
-        <v>455652.8681463732</v>
+        <v>455322.9604556324</v>
       </c>
       <c r="H6" t="n">
-        <v>455652.8681463734</v>
+        <v>455322.9604556327</v>
       </c>
       <c r="I6" t="n">
-        <v>455652.868146373</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="J6" t="n">
-        <v>279229.6489537805</v>
+        <v>278899.7412630395</v>
       </c>
       <c r="K6" t="n">
-        <v>455652.8681463735</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="L6" t="n">
-        <v>455652.8681463734</v>
+        <v>455322.9604556324</v>
       </c>
       <c r="M6" t="n">
-        <v>326010.5533074285</v>
+        <v>325680.6456166878</v>
       </c>
       <c r="N6" t="n">
-        <v>455652.8681463732</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="O6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="P6" t="n">
-        <v>455652.8681463734</v>
+        <v>455322.9604556333</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26764,10 +26764,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>28.69633134113582</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>70.41158511580198</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>61.9287296964463</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>146.1401991120225</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>87.64003977295243</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>101.8928854073618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>230.6829669745647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.6413968852573</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.091280493945817</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>23.70481751978986</v>
+        <v>56.01837628787206</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138783</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035321</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730089</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932195</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>330.4989635121724</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>797.5422943919199</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814159</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050164</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306895</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>685.3008529699231</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>358.2983456184758</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>323.7860185257248</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400155</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597769</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923324</v>
+        <v>616.6425541386604</v>
       </c>
       <c r="M32" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359011</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340041</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37314,22 +37314,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>938.3862089113189</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37554,16 +37554,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>735.386689420456</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359093</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060962</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261190.585011891</v>
+        <v>2259700.365562746</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9881884.789902523</v>
+        <v>9881884.789902521</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>325.9867102795471</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.68674332176606</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>235.7412200973003</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>32.44203069056119</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.5978988831012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>184.388988834616</v>
+        <v>2.393161831056865</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>115.2889731870045</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534524</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>116.6290529729278</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>99.61671467938193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,10 +1663,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>162.6619384845067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>18.93482921065033</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.02930655048458</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2402935433864331</v>
+        <v>15.02864725723328</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.59265124632597</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.02864725723317</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>99.20555210933476</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.612772922120321</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>110.0145530728056</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>78.23263067809606</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>67.41386939711252</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>48.37445137896839</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>48.00679786410397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>129.7991394858825</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004746</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>120.6353666620203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.134716985073</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1212.172200044661</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.134716985073</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>696.2947298771707</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>696.2947298771707</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>696.2947298771707</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>468.3051789791533</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1726.574418528649</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1357.611901588237</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>999.3462029814866</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.17425859277</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.17425859277</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2113.17425859277</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036443</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036443</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036443</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245967</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036443</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551608</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
@@ -5056,37 +5056,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.14211023273</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353827</v>
+        <v>550.0071782166609</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>381.070995288754</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1063.33469826364</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>1063.33469826364</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>835.3451473656224</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3451473656224</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5272,58 +5272,58 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M14" t="n">
-        <v>2628.734306600803</v>
+        <v>2120.457898518746</v>
       </c>
       <c r="N14" t="n">
-        <v>3175.513123659585</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O14" t="n">
-        <v>3678.485594538922</v>
+        <v>3547.201365906983</v>
       </c>
       <c r="P14" t="n">
-        <v>4391.840681985868</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.5459590456827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.643526557401</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.338538189213</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1191.338538189213</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>970.5459590456827</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,67 +5500,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.274683721365</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C19" t="n">
-        <v>707.274683721365</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>928.0672628648952</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.274683721365</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5764,13 +5764,13 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3362.809616117416</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5782,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5855,16 +5855,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3774.668018147752</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C22" t="n">
-        <v>3605.731835219845</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D22" t="n">
-        <v>3455.61519580751</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E22" t="n">
-        <v>3307.702102225117</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727206</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727206</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945064</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.26929076341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746775</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>4177.351782872418</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>4177.351782872418</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>4177.351782872418</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>4177.109062121523</v>
+        <v>1107.958489212517</v>
       </c>
       <c r="Y22" t="n">
-        <v>3956.316482977992</v>
+        <v>887.1659100689867</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.153662641309</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4299.260038026375</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>533.5270475124396</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5270475124396</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4104081001038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>383.4104081001038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>383.4104081001038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>215.7075714748228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1163.957642384227</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>935.9680914862095</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>715.1755123426793</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,64 +6214,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888351</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3931.363334276588</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4326.137700633766</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3942.370854773036</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.434671845129</v>
+        <v>551.7617140858231</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432793</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.4049388504</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4297.26297137219</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>4042.578483166303</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>4042.578483166303</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>3942.370854773036</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y28" t="n">
-        <v>3942.370854773036</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="29">
@@ -6454,46 +6454,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888619</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924161</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6533,22 +6533,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.9395339702917</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C31" t="n">
-        <v>343.0033510423848</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8867116300491</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1952.694200526804</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1761.00831635363</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1539.241700923156</v>
+        <v>1845.217654920052</v>
       </c>
       <c r="U31" t="n">
-        <v>1250.1388340488</v>
+        <v>1556.114788045695</v>
       </c>
       <c r="V31" t="n">
-        <v>1250.1388340488</v>
+        <v>1301.430299839808</v>
       </c>
       <c r="W31" t="n">
-        <v>960.7216640118392</v>
+        <v>1012.013129802848</v>
       </c>
       <c r="X31" t="n">
-        <v>732.7321131138218</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.9395339702917</v>
+        <v>784.0235789048305</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>885.7654343213993</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C34" t="n">
-        <v>716.8292513934924</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D34" t="n">
-        <v>566.7126119811567</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E34" t="n">
-        <v>418.7995183987636</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F34" t="n">
-        <v>271.9095709008532</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W34" t="n">
-        <v>1288.206478295169</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X34" t="n">
-        <v>1288.206478295169</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.413899151639</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998329</v>
+        <v>241.7497938310272</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998329</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0738540998329</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7140,7 +7140,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7186,16 +7186,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3189.361480106701</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3576.687616095327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3576.687616095327</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3426.570976682992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3426.570976682992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3279.681029185082</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3111.9781925598</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2965.761005777658</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4496.535381004075</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>4496.535381004075</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4496.535381004075</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>4207.118210967114</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3979.128660069097</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3758.336080925567</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7450,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>470.2141403171231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>470.2141403171231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1390.061905225871</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1100.64473518891</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>872.655184290893</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>651.8626051473628</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277724</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483402</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542183</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7675,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7712,37 +7712,37 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193638</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320284</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008797</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7806,46 +7806,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689055</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258581</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384224</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783372</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413767</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
         <v>498.0020784221642</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050825</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299934</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.70465870845291</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>258.6211785616931</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476834</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>358.2849913921049</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.5040408147564</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.35488666587534</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>161.0524397463283</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>386.0843734984074</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>183.0848540075445</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476912</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>31.98642004528455</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>152.5209286444461</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5631840798974</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>123.8610598520843</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>160.897150971287</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>96.58616646772776</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.4693618456507</v>
+        <v>210.6810081318039</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>122.1623636679948</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.5868257609792</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>126.5041032797024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.31937974792703</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>109.5343962033636</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>87.79317758093217</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>77.34114551720826</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>98.05951126760078</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>48.34562254573412</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>18.81633353232982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.0742887270168</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636297</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="E2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="J2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="L2" t="n">
         <v>575768.5909861256</v>
@@ -26349,13 +26349,13 @@
         <v>575768.5909861259</v>
       </c>
       <c r="N2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="O2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.590986126</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861259</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="C4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="D4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046757</v>
       </c>
       <c r="F4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046755</v>
       </c>
       <c r="G4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="H4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="I4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="J4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046751</v>
       </c>
       <c r="K4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="L4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="M4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="N4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="O4" t="n">
-        <v>24062.11227677957</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="P4" t="n">
-        <v>24062.11227677967</v>
+        <v>23726.60550046754</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276011.27568389</v>
+        <v>-275155.0988955533</v>
       </c>
       <c r="C6" t="n">
-        <v>313956.6035306545</v>
+        <v>314812.7803189914</v>
       </c>
       <c r="D6" t="n">
-        <v>313956.6035306546</v>
+        <v>314812.7803189915</v>
       </c>
       <c r="E6" t="n">
-        <v>-272054.4535377744</v>
+        <v>-272390.9016637201</v>
       </c>
       <c r="F6" t="n">
-        <v>455322.9604556327</v>
+        <v>454986.5123296866</v>
       </c>
       <c r="G6" t="n">
-        <v>455322.9604556324</v>
+        <v>454986.5123296865</v>
       </c>
       <c r="H6" t="n">
-        <v>455322.9604556327</v>
+        <v>454986.5123296862</v>
       </c>
       <c r="I6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296863</v>
       </c>
       <c r="J6" t="n">
-        <v>278899.7412630395</v>
+        <v>278563.2931370936</v>
       </c>
       <c r="K6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296863</v>
       </c>
       <c r="L6" t="n">
-        <v>455322.9604556324</v>
+        <v>454986.5123296865</v>
       </c>
       <c r="M6" t="n">
-        <v>325680.6456166878</v>
+        <v>325344.197490742</v>
       </c>
       <c r="N6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296864</v>
       </c>
       <c r="O6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296868</v>
       </c>
       <c r="P6" t="n">
-        <v>455322.9604556333</v>
+        <v>454986.5123296867</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28.69633134113582</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>61.9287296964463</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>16.3964232265277</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>322.2410109301218</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.64003977295243</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>101.8928854073618</v>
+        <v>283.8887124109208</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>266.6413968852573</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787206</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>204.0577749647634</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.043320350748088e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.81894760577762e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-2.749529006271255e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781683</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035321</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730089</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223256</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.4989635121724</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>797.5422943919199</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>910.5868268050164</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306895</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>358.2983456184758</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.1491914695948</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257248</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>616.6425541386604</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>938.3862089113189</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37326,10 +37326,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,19 +37554,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>735.386689420456</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407858</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265643</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129103</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359093</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908535</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636235</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597679</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060962</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127267</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259700.365562746</v>
+        <v>2263105.856687196</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -876,7 +876,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>235.7412200973003</v>
+        <v>235.7412200973001</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.393161831056865</v>
+        <v>2.39316183105664</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534524</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>116.6290529729278</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>137.2338132090248</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.26879610203984</v>
+        <v>132.356989485758</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.93482921065033</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>66.06391530585695</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>15.02864725723328</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>15.02864725723317</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0145530728056</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.41386939711252</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.37445137896839</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="38">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T40" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3799,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>194.9437214015086</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,34 +4494,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
         <v>200.8329293182748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4710,19 +4710,19 @@
         <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,31 +4731,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
         <v>696.2947298771707</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5020,31 +5020,31 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551608</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
@@ -5056,31 +5056,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.14211023273</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679676</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.955528730109</v>
@@ -5117,16 +5117,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5181,28 +5181,28 @@
         <v>381.070995288754</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>381.070995288754</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5260,22 +5260,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5284,34 +5284,34 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846822</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518746</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577529</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906983</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353929</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261303</v>
@@ -5354,13 +5354,13 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.4509819463048</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4509819463048</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839438</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839438</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>1157.030850049857</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,43 +5500,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5770,34 +5770,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.517445238747</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>536.5812623108401</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108401</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1889.61223852303</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.845623092556</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1378.7427562182</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1124.058268012313</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="X22" t="n">
-        <v>1107.958489212517</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.1659100689867</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6001,34 +6001,34 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6189,10 +6189,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,34 +6311,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>720.69789701373</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>551.7617140858231</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>902.3463618439697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6454,46 +6454,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.0235789048305</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1828.498922546691</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.217654920052</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U31" t="n">
-        <v>1556.114788045695</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V31" t="n">
-        <v>1301.430299839808</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W31" t="n">
-        <v>1012.013129802848</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X31" t="n">
-        <v>784.0235789048305</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.0235789048305</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,34 +6718,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.2948715744233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6558520212353</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1420.142636483171</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>1130.72546644621</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>902.7359155481931</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>681.943336404663</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>241.7497938310272</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001584</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7192,34 +7192,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7408,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,22 +7593,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
         <v>498.0020784221642</v>
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476824</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>198.7154374299934</v>
+        <v>198.7154374299943</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L26" t="n">
-        <v>57.67224444723735</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>57.67224444723735</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.98642004528455</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>9.200149437544383</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.5631840798974</v>
+        <v>47.47499069617925</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,22 +23703,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.897150971287</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>123.7051100255849</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.6810081318039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.5631840798974</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>133.5868257609792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>63.20292720900936</v>
       </c>
       <c r="T31" t="n">
-        <v>109.5343962033636</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>77.34114551720826</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>98.05951126760078</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="38">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T40" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>91.2681168041043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
   </sheetData>
@@ -26322,19 +26322,19 @@
         <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="F2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="G2" t="n">
-        <v>575768.5909861256</v>
       </c>
       <c r="H2" t="n">
         <v>575768.5909861255</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="J2" t="n">
         <v>575768.5909861256</v>
@@ -26343,7 +26343,7 @@
         <v>575768.5909861255</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="M2" t="n">
         <v>575768.5909861259</v>
@@ -26355,7 +26355,7 @@
         <v>575768.590986126</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>23726.60550046757</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="F4" t="n">
-        <v>23726.60550046755</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="G4" t="n">
         <v>23726.60550046753</v>
       </c>
       <c r="H4" t="n">
+        <v>23726.60550046753</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23726.60550046753</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23726.60550046753</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23726.60550046753</v>
+      </c>
+      <c r="L4" t="n">
         <v>23726.60550046754</v>
       </c>
-      <c r="I4" t="n">
-        <v>23726.60550046754</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23726.60550046751</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23726.60550046754</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>23726.60550046753</v>
       </c>
-      <c r="M4" t="n">
-        <v>23726.60550046754</v>
-      </c>
       <c r="N4" t="n">
-        <v>23726.60550046754</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="O4" t="n">
-        <v>23726.60550046754</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="P4" t="n">
-        <v>23726.60550046754</v>
+        <v>23726.60550046753</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275155.0988955533</v>
+        <v>-275155.0988955532</v>
       </c>
       <c r="C6" t="n">
         <v>314812.7803189914</v>
@@ -26530,40 +26530,40 @@
         <v>314812.7803189915</v>
       </c>
       <c r="E6" t="n">
-        <v>-272390.9016637201</v>
+        <v>-271786.1422516882</v>
       </c>
       <c r="F6" t="n">
-        <v>454986.5123296866</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="G6" t="n">
-        <v>454986.5123296865</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="H6" t="n">
-        <v>454986.5123296862</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="I6" t="n">
-        <v>454986.5123296863</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="J6" t="n">
-        <v>278563.2931370936</v>
+        <v>279168.0525491256</v>
       </c>
       <c r="K6" t="n">
-        <v>454986.5123296863</v>
+        <v>455591.2717417185</v>
       </c>
       <c r="L6" t="n">
-        <v>454986.5123296865</v>
+        <v>455591.2717417185</v>
       </c>
       <c r="M6" t="n">
-        <v>325344.197490742</v>
+        <v>325948.9569027743</v>
       </c>
       <c r="N6" t="n">
-        <v>454986.5123296864</v>
+        <v>455591.2717417186</v>
       </c>
       <c r="O6" t="n">
-        <v>454986.5123296868</v>
+        <v>455591.2717417191</v>
       </c>
       <c r="P6" t="n">
-        <v>454986.5123296867</v>
+        <v>455591.2717417189</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503742</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>16.3964232265277</v>
+        <v>16.39642322652793</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>283.8887124109208</v>
+        <v>283.8887124109211</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.043320350748088e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.81894760577762e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.749529006271255e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -31858,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359016</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35506,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>654.3055518223256</v>
+        <v>654.3055518223265</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L26" t="n">
-        <v>513.2623588395695</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>513.2623588395695</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
